--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1683103.32651933</v>
+        <v>-1685804.195236729</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>223.2838559737184</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>147.1332888873531</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>24.55276019063715</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>35.51592213214204</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>28.11545322928039</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>220.8789552701356</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>239.6740851354571</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>93.5617669879985</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>75.41152868989155</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>253.4476591457523</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.303420761488186</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1184,7 +1184,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95.89042502659686</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>145.921906082165</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634788</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>252.2510378376948</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>60.78102717027785</v>
       </c>
       <c r="H16" t="n">
-        <v>23.62554568141267</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>155.1980648094029</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>126.4418041083153</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.86833396296446</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>17.48314223074837</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>46.52295781333198</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>33.828918917875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2959,7 +2959,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3901,22 +3901,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>949.8076959691459</v>
+        <v>1092.930574522032</v>
       </c>
       <c r="C2" t="n">
-        <v>580.8451790287343</v>
+        <v>1092.930574522032</v>
       </c>
       <c r="D2" t="n">
-        <v>355.3059305704328</v>
+        <v>1092.930574522032</v>
       </c>
       <c r="E2" t="n">
-        <v>355.3059305704328</v>
+        <v>1092.930574522032</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>681.9446697324249</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>266.2399194567138</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.012626270159</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>2100.012626270159</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X2" t="n">
-        <v>1726.546868009079</v>
+        <v>1479.530414586154</v>
       </c>
       <c r="Y2" t="n">
-        <v>1336.407536033268</v>
+        <v>1479.530414586154</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L3" t="n">
-        <v>846.3061319081664</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>535.0593816855418</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>366.1231987576349</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>366.1231987576349</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
         <v>51.2467865680031</v>
@@ -4486,52 +4486,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1611.645352205167</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>1611.645352205167</v>
       </c>
       <c r="V4" t="n">
-        <v>1012.240959433433</v>
+        <v>1356.96086399928</v>
       </c>
       <c r="W4" t="n">
-        <v>983.8415117270893</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="X4" t="n">
-        <v>755.8519608290719</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>535.0593816855418</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1202.59552936621</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.59552936621</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>352.3948377958416</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>340.7304915605346</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1941.964024700445</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1589.195369430331</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>1589.195369430331</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y5" t="n">
-        <v>1589.195369430331</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.1664670606423</v>
+        <v>927.5959500216833</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>758.6597670937764</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>608.5431276814406</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>460.6300340990475</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>313.7400866011371</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>145.7536219094157</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544054</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W7" t="n">
-        <v>793.1323075070932</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="X7" t="n">
-        <v>716.9590462041724</v>
+        <v>1109.244414851923</v>
       </c>
       <c r="Y7" t="n">
-        <v>496.1664670606423</v>
+        <v>1109.244414851923</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1112.520734025445</v>
+        <v>1694.732133680699</v>
       </c>
       <c r="C8" t="n">
-        <v>743.5582170850332</v>
+        <v>1694.732133680699</v>
       </c>
       <c r="D8" t="n">
-        <v>385.2925184782827</v>
+        <v>1336.466435073949</v>
       </c>
       <c r="E8" t="n">
-        <v>385.2925184782827</v>
+        <v>950.6781824757043</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>539.6922776860968</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>123.9875274103856</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.125824262336</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X8" t="n">
-        <v>1502.660066001257</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="Y8" t="n">
-        <v>1112.520734025445</v>
+        <v>1694.732133680699</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>536.9083323241252</v>
+        <v>643.5623317901019</v>
       </c>
       <c r="C10" t="n">
-        <v>367.9721493962184</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>367.9721493962184</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962184</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544053</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1082.549477544053</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>854.559926646036</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>633.7673475025059</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
         <v>484.8112968429802</v>
@@ -5194,16 +5194,16 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1905.516886736721</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1650.832398530834</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1361.415228493873</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1133.425677595856</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380876</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380876</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>591.7265122257519</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>443.8134186433588</v>
       </c>
       <c r="F16" t="n">
-        <v>366.9636532421608</v>
+        <v>296.9234711454484</v>
       </c>
       <c r="G16" t="n">
-        <v>199.7675539570408</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683274</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>1106.346450813424</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6260,7 +6260,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6607,13 +6607,13 @@
         <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6789,16 +6789,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,13 +6883,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,22 +7154,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7190,34 +7190,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7792,10 +7792,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
-        <v>255.8421700460943</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>45.76488231024575</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>138.9393975111059</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>131.3991856469645</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>146.6596190780775</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>216.621721191686</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>33.93343655154939</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>104.743111121991</v>
       </c>
       <c r="H16" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>90.96364621897298</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.96364621897284</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>149.7636788678795</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>205.614685510496</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44177.68267983173</v>
+        <v>44177.68267983178</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426732056</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426731984</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="H4" t="n">
-        <v>8117.312426731996</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426732003</v>
-      </c>
       <c r="J4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>16108.17168982544</v>
+        <v>16108.17168982542</v>
       </c>
       <c r="L4" t="n">
+        <v>16108.17168982545</v>
+      </c>
+      <c r="M4" t="n">
         <v>16108.17168982546</v>
       </c>
-      <c r="M4" t="n">
-        <v>16108.17168982545</v>
-      </c>
       <c r="N4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982554</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982543</v>
       </c>
       <c r="P4" t="n">
         <v>16108.17168982545</v>
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1152400.229685144</v>
+        <v>-1152795.050626298</v>
       </c>
       <c r="C6" t="n">
         <v>-104099.5072220659</v>
@@ -26528,25 +26528,25 @@
         <v>-104099.5072220659</v>
       </c>
       <c r="E6" t="n">
-        <v>-495653.293921684</v>
+        <v>-495688.0318471195</v>
       </c>
       <c r="F6" t="n">
-        <v>11832.1477028618</v>
+        <v>11797.409777426</v>
       </c>
       <c r="G6" t="n">
-        <v>11832.14770286184</v>
+        <v>11797.4097774261</v>
       </c>
       <c r="H6" t="n">
-        <v>11832.14770286177</v>
+        <v>11797.40977742613</v>
       </c>
       <c r="I6" t="n">
-        <v>11832.14770286174</v>
+        <v>11797.40977742613</v>
       </c>
       <c r="J6" t="n">
-        <v>-155773.0301071207</v>
+        <v>-155807.7680325564</v>
       </c>
       <c r="K6" t="n">
-        <v>-15543.74005773022</v>
+        <v>-15543.74005773019</v>
       </c>
       <c r="L6" t="n">
         <v>3883.977935901639</v>
@@ -26555,10 +26555,10 @@
         <v>-128723.315793025</v>
       </c>
       <c r="N6" t="n">
-        <v>3883.977935901668</v>
+        <v>3883.977935901639</v>
       </c>
       <c r="O6" t="n">
-        <v>3883.977935901668</v>
+        <v>3883.977935901654</v>
       </c>
       <c r="P6" t="n">
         <v>-15543.74005773012</v>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.225644596974774</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>196.1959358065748</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>258.4075451073106</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>80.13959729226974</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>88.07817333467781</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>53.68974216713038</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27831,16 +27831,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>150.2981266991456</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>153.4283865959591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>294.7151318009172</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.94155515534044</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>21.32491501646282</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32488,7 +32488,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>499.3768644016574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>567.7870775946151</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236492</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L3" t="n">
-        <v>553.5225306839445</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>562.7107934893642</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>295.444411433778</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,16 +35264,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>474.3640795072288</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998975</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>368.035152318324</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>425.1908331501707</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683797</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
